--- a/数据整理/stocks/港股/01898-中煤能源.xlsx
+++ b/数据整理/stocks/港股/01898-中煤能源.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,97 +22,151 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>008099</t>
+  </si>
+  <si>
+    <t>005051</t>
+  </si>
+  <si>
+    <t>009140</t>
+  </si>
+  <si>
+    <t>005052</t>
+  </si>
+  <si>
+    <t>005269</t>
+  </si>
+  <si>
+    <t>161124</t>
+  </si>
+  <si>
     <t>501023</t>
   </si>
   <si>
-    <t>005051</t>
-  </si>
-  <si>
-    <t>005052</t>
-  </si>
-  <si>
-    <t>005269</t>
-  </si>
-  <si>
-    <t>161124</t>
-  </si>
-  <si>
     <t>006263</t>
   </si>
   <si>
-    <t>008099</t>
-  </si>
-  <si>
-    <t>009140</t>
+    <t>广发价值领先混合</t>
+  </si>
+  <si>
+    <t>上投摩根标普港股通低波红利指数A</t>
+  </si>
+  <si>
+    <t>永赢竞争力精选混合</t>
+  </si>
+  <si>
+    <t>上投摩根标普港股通低波红利指数C</t>
+  </si>
+  <si>
+    <t>华泰柏瑞港股通量化灵活配置混合</t>
+  </si>
+  <si>
+    <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
   </si>
   <si>
     <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
   </si>
   <si>
-    <t>上投摩根标普港股通低波红利指数A</t>
-  </si>
-  <si>
-    <t>上投摩根标普港股通低波红利指数C</t>
-  </si>
-  <si>
-    <t>华泰柏瑞港股通量化灵活配置混合</t>
-  </si>
-  <si>
-    <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-  </si>
-  <si>
     <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
   </si>
   <si>
-    <t>广发价值领先混合</t>
-  </si>
-  <si>
-    <t>永赢竞争力精选混合</t>
+    <t>45.87</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>72.96</t>
+  </si>
+  <si>
+    <t>93.74</t>
+  </si>
+  <si>
+    <t>89.69</t>
+  </si>
+  <si>
+    <t>92.73</t>
+  </si>
+  <si>
+    <t>93.11</t>
   </si>
   <si>
     <t>92.49</t>
   </si>
   <si>
-    <t>93.74</t>
-  </si>
-  <si>
-    <t>92.73</t>
-  </si>
-  <si>
-    <t>93.11</t>
-  </si>
-  <si>
-    <t>72.96</t>
-  </si>
-  <si>
-    <t>89.69</t>
+    <t>5.21</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>1.40</t>
   </si>
   <si>
     <t>2.87</t>
   </si>
   <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>1.93</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>5.21</t>
-  </si>
-  <si>
-    <t>3.08</t>
+    <t>2.3898</t>
+  </si>
+  <si>
+    <t>0.0560</t>
+  </si>
+  <si>
+    <t>0.0271</t>
+  </si>
+  <si>
+    <t>0.0150</t>
+  </si>
+  <si>
+    <t>0.0083</t>
+  </si>
+  <si>
+    <t>0.0070</t>
+  </si>
+  <si>
+    <t>0.0029</t>
+  </si>
+  <si>
+    <t>0.0017</t>
   </si>
 </sst>
 </file>
@@ -470,13 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,164 +546,218 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01898-中煤能源.xlsx
+++ b/数据整理/stocks/港股/01898-中煤能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7806</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1820</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8929</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01898-中煤能源.xlsx
+++ b/数据整理/stocks/港股/01898-中煤能源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1448,4 +1449,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01898-中煤能源.xlsx
+++ b/数据整理/stocks/港股/01898-中煤能源.xlsx
@@ -1473,12 +1473,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/01898-中煤能源.xlsx
+++ b/数据整理/stocks/港股/01898-中煤能源.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.07</v>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.61</v>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1520,13 +1585,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.51</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01898-中煤能源.xlsx
+++ b/数据整理/stocks/港股/01898-中煤能源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.1</v>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0267</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.07</v>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.61</v>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1832,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.51</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01898-中煤能源.xlsx
+++ b/数据整理/stocks/港股/01898-中煤能源.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,361 +455,533 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发价值领先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>45.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>72.96</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.3898</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>4</v>
       </c>
+      <c r="D2" t="n">
+        <v>1.11</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0560</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009140</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>永赢竞争力精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.07</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.61</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005269</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501023</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0267</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,36 +1038,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.33</t>
+          <t>66.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.6195</t>
+          <t>3.7806</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -904,36 +1076,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009983</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢港股通品质生活慧选混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>17.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8856</t>
+          <t>1.1820</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -942,36 +1114,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>009983</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>永赢港股通品质生活慧选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>13.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>75.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0791</t>
+          <t>0.8929</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -980,36 +1152,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>008480</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>永赢股息优选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>84.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0177</t>
+          <t>0.1987</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1018,32 +1190,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>008481</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>永赢股息优选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>84.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1056,36 +1228,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>95.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1104,26 +1276,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>95.11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1188,36 +1360,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.21</t>
+          <t>81.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>91.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.7806</t>
+          <t>4.6195</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1226,36 +1398,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>009983</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>永赢港股通品质生活慧选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.28</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1820</t>
+          <t>0.8856</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1264,36 +1436,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009983</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>永赢港股通品质生活慧选混合</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.94</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8929</t>
+          <t>0.0791</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1302,36 +1474,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008480</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>永赢股息优选混合A</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.95</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1987</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1340,32 +1512,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008481</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>永赢股息优选混合C</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.95</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1378,36 +1550,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>501023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.11</t>
+          <t>88.99</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1426,442 +1598,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.11</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010761</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商甄选回报混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0542</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0354</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010761</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商甄选回报混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0267</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0726</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1875,112 +1631,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3898</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.11</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>6.07</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.61</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.51</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01898-中煤能源.xlsx
+++ b/数据整理/stocks/港股/01898-中煤能源.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.11</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>6.07</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>5.61</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.51</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,31 +644,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>华商甄选回报混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.32</t>
+          <t>24.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.22</t>
+          <t>85.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0267</t>
+          <t>0.4489</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -665,31 +682,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>华宝海外中国混合（QDII）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0726</t>
+          <t>0.0677</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -698,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>016049</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>华商甄选回报混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>85.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0466</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -736,36 +753,262 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006263</t>
+          <t>014148</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+          <t>景顺长城安鼎一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>26.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0374</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016921</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -840,22 +1083,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.63</t>
+          <t>22.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>89.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0542</t>
+          <t>1.0267</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -878,26 +1121,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.89</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0354</t>
+          <t>0.0726</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -916,22 +1159,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -959,17 +1202,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -987,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,7 +1251,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1038,36 +1281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.21</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.7806</t>
+          <t>1.0542</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1076,36 +1319,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.28</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>86.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1820</t>
+          <t>0.0354</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1114,36 +1357,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009983</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>永赢港股通品质生活慧选混合</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.94</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8929</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1152,150 +1395,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008480</t>
+          <t>006263</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>永赢股息优选混合A</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.95</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1987</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008481</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>永赢股息优选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.95</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>95.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1360,36 +1489,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.33</t>
+          <t>66.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.6195</t>
+          <t>3.7806</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1398,36 +1527,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009983</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢港股通品质生活慧选混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>17.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8856</t>
+          <t>1.1820</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1436,36 +1565,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>009983</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>永赢港股通品质生活慧选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>13.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>75.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0791</t>
+          <t>0.8929</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1474,36 +1603,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>008480</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>永赢股息优选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>84.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0177</t>
+          <t>0.1987</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1512,32 +1641,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>008481</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>永赢股息优选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>84.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1550,36 +1679,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>95.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1598,26 +1727,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>95.11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1626,6 +1755,328 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6195</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8856</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01898-中煤能源.xlsx
+++ b/数据整理/stocks/港股/01898-中煤能源.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.68</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.11</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>6.07</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>5.61</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.51</v>
       </c>
     </row>
@@ -583,6 +600,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>016513</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安嘉债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014148</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014149</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城安鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1009,214 +1310,6 @@
       </c>
       <c r="H11" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010761</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商甄选回报混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0267</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0726</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1291,22 +1384,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.63</t>
+          <t>22.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>89.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0542</t>
+          <t>1.0267</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1329,26 +1422,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.89</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0354</t>
+          <t>0.0726</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1367,22 +1460,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1410,17 +1503,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1438,7 +1531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1459,7 +1552,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1489,36 +1582,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.21</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.7806</t>
+          <t>1.0542</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1527,36 +1620,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.28</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>86.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1820</t>
+          <t>0.0354</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1565,36 +1658,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009983</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>永赢港股通品质生活慧选混合</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.94</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8929</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1603,150 +1696,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008480</t>
+          <t>006263</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>永赢股息优选混合A</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.95</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1987</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008481</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>永赢股息优选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.95</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>95.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1811,36 +1790,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.33</t>
+          <t>66.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.6195</t>
+          <t>3.7806</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1849,36 +1828,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009983</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢港股通品质生活慧选混合</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>17.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8856</t>
+          <t>1.1820</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1887,36 +1866,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>009983</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>永赢港股通品质生活慧选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>13.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>75.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0791</t>
+          <t>0.8929</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1925,36 +1904,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>008480</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>永赢股息优选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>84.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0177</t>
+          <t>0.1987</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1963,32 +1942,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>008481</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>永赢股息优选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>84.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2001,36 +1980,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>95.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2049,26 +2028,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>95.11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2077,6 +2056,328 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6195</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8856</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
